--- a/output/1Y_P40_KFSDIV.xlsx
+++ b/output/1Y_P40_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>14.1252</v>
       </c>
       <c r="C2" s="1">
-        <v>14.1252</v>
+        <v>14.097</v>
       </c>
       <c r="D2" s="1">
-        <v>14.1252</v>
+        <v>14.1535</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>707.9546</v>
+        <v>706.539</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>14.1934</v>
       </c>
       <c r="C3" s="1">
-        <v>14.1934</v>
+        <v>14.165</v>
       </c>
       <c r="D3" s="1">
-        <v>14.1934</v>
+        <v>14.2218</v>
       </c>
       <c r="E3" s="1">
-        <v>707.9546</v>
+        <v>706.539</v>
       </c>
       <c r="F3" s="1">
-        <v>704.5528</v>
+        <v>703.1459</v>
       </c>
       <c r="H3" s="1">
-        <v>10048.2825</v>
+        <v>10008.1252</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10048.2825</v>
+        <v>10008.1252</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>14.1252</v>
+        <v>14.1535</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0048</v>
+        <v>0.0008</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,46 +821,46 @@
         <v>14.1176</v>
       </c>
       <c r="C4" s="1">
-        <v>14.1176</v>
+        <v>14.0894</v>
       </c>
       <c r="D4" s="1">
-        <v>14.1176</v>
+        <v>14.1459</v>
       </c>
       <c r="E4" s="1">
-        <v>1412.5074</v>
+        <v>1409.6849</v>
       </c>
       <c r="F4" s="1">
-        <v>708.3357</v>
+        <v>706.9186</v>
       </c>
       <c r="H4" s="1">
-        <v>19941.2144</v>
+        <v>19861.6143</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19941.2144</v>
+        <v>19861.6143</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>14.1592</v>
+        <v>14.1876</v>
       </c>
       <c r="M4" s="1">
         <v>0.5</v>
       </c>
       <c r="N4" s="1">
-        <v>318.5796</v>
+        <v>317.9426</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9681.420400000001</v>
+        <v>-9682.0574</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0053</v>
+        <v>-0.0073</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,31 +871,31 @@
         <v>15.3311</v>
       </c>
       <c r="C5" s="1">
-        <v>15.3311</v>
+        <v>15.3004</v>
       </c>
       <c r="D5" s="1">
-        <v>15.3311</v>
+        <v>15.3618</v>
       </c>
       <c r="E5" s="1">
-        <v>2120.8431</v>
+        <v>2116.6035</v>
       </c>
       <c r="F5" s="1">
-        <v>654.5778</v>
+        <v>653.265</v>
       </c>
       <c r="H5" s="1">
-        <v>32514.8575</v>
+        <v>32384.8803</v>
       </c>
       <c r="I5" s="1">
-        <v>318.5796</v>
+        <v>317.9426</v>
       </c>
       <c r="J5" s="1">
-        <v>32833.4371</v>
+        <v>32702.8228</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>14.1453</v>
+        <v>14.1737</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10035.3977</v>
+        <v>-10035.327</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.09660000000000001</v>
+        <v>0.0951</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,31 +921,31 @@
         <v>15.3637</v>
       </c>
       <c r="C6" s="1">
-        <v>15.3637</v>
+        <v>15.333</v>
       </c>
       <c r="D6" s="1">
-        <v>15.3637</v>
+        <v>15.3945</v>
       </c>
       <c r="E6" s="1">
-        <v>2775.4209</v>
+        <v>2769.8685</v>
       </c>
       <c r="F6" s="1">
-        <v>653.1889</v>
+        <v>651.8774</v>
       </c>
       <c r="H6" s="1">
-        <v>42640.734</v>
+        <v>42470.3945</v>
       </c>
       <c r="I6" s="1">
-        <v>283.1818</v>
+        <v>282.6156</v>
       </c>
       <c r="J6" s="1">
-        <v>42923.9158</v>
+        <v>42753.0101</v>
       </c>
       <c r="K6" s="1">
-        <v>40035.3977</v>
+        <v>40035.327</v>
       </c>
       <c r="L6" s="1">
-        <v>14.425</v>
+        <v>14.4539</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -957,10 +957,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10035.3977</v>
+        <v>-10035.327</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0021</v>
+        <v>0.0012</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,46 +971,46 @@
         <v>14.6447</v>
       </c>
       <c r="C7" s="1">
-        <v>14.6447</v>
+        <v>14.6154</v>
       </c>
       <c r="D7" s="1">
-        <v>14.6447</v>
+        <v>14.674</v>
       </c>
       <c r="E7" s="1">
-        <v>3428.6098</v>
+        <v>3421.746</v>
       </c>
       <c r="F7" s="1">
-        <v>685.258</v>
+        <v>683.8849</v>
       </c>
       <c r="H7" s="1">
-        <v>50210.9613</v>
+        <v>50010.1861</v>
       </c>
       <c r="I7" s="1">
-        <v>247.7841</v>
+        <v>247.2887</v>
       </c>
       <c r="J7" s="1">
-        <v>50458.7454</v>
+        <v>50257.4747</v>
       </c>
       <c r="K7" s="1">
-        <v>50070.7955</v>
+        <v>50070.6539</v>
       </c>
       <c r="L7" s="1">
-        <v>14.6038</v>
+        <v>14.6331</v>
       </c>
       <c r="M7" s="1">
         <v>1</v>
       </c>
       <c r="N7" s="1">
-        <v>2497.8788</v>
+        <v>2492.8817</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-7537.5189</v>
+        <v>-7542.4453</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0466</v>
+        <v>-0.0473</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,31 +1021,31 @@
         <v>15.486</v>
       </c>
       <c r="C8" s="1">
-        <v>15.486</v>
+        <v>15.455</v>
       </c>
       <c r="D8" s="1">
-        <v>15.486</v>
+        <v>15.517</v>
       </c>
       <c r="E8" s="1">
-        <v>4113.8677</v>
+        <v>4105.6309</v>
       </c>
       <c r="F8" s="1">
-        <v>674.9135</v>
+        <v>673.5069</v>
       </c>
       <c r="H8" s="1">
-        <v>63707.356</v>
+        <v>63452.525</v>
       </c>
       <c r="I8" s="1">
-        <v>2710.2652</v>
+        <v>2704.8434</v>
       </c>
       <c r="J8" s="1">
-        <v>66417.6211</v>
+        <v>66157.36840000001</v>
       </c>
       <c r="K8" s="1">
-        <v>60106.1932</v>
+        <v>60105.9809</v>
       </c>
       <c r="L8" s="1">
-        <v>14.6106</v>
+        <v>14.6399</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10451.7109</v>
+        <v>-10450.8072</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.09859999999999999</v>
+        <v>0.0979</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,31 +1071,31 @@
         <v>16.1958</v>
       </c>
       <c r="C9" s="1">
-        <v>16.1957</v>
+        <v>16.1634</v>
       </c>
       <c r="D9" s="1">
-        <v>16.1958</v>
+        <v>16.2282</v>
       </c>
       <c r="E9" s="1">
-        <v>4788.7813</v>
+        <v>4779.1378</v>
       </c>
       <c r="F9" s="1">
-        <v>645.3346</v>
+        <v>643.9905</v>
       </c>
       <c r="H9" s="1">
-        <v>77557.6649</v>
+        <v>77247.11599999999</v>
       </c>
       <c r="I9" s="1">
-        <v>2258.5543</v>
+        <v>2254.0362</v>
       </c>
       <c r="J9" s="1">
-        <v>79816.21920000001</v>
+        <v>79501.1522</v>
       </c>
       <c r="K9" s="1">
-        <v>70557.90399999999</v>
+        <v>70556.78810000001</v>
       </c>
       <c r="L9" s="1">
-        <v>14.734</v>
+        <v>14.7635</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10451.7109</v>
+        <v>-10450.8072</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0445</v>
+        <v>0.0439</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,46 +1121,46 @@
         <v>16.4264</v>
       </c>
       <c r="C10" s="1">
-        <v>16.4264</v>
+        <v>16.3936</v>
       </c>
       <c r="D10" s="1">
-        <v>16.4264</v>
+        <v>16.4593</v>
       </c>
       <c r="E10" s="1">
-        <v>5434.1159</v>
+        <v>5423.1283</v>
       </c>
       <c r="F10" s="1">
-        <v>636.2752</v>
+        <v>634.9485</v>
       </c>
       <c r="H10" s="1">
-        <v>89262.9618</v>
+        <v>88904.5968</v>
       </c>
       <c r="I10" s="1">
-        <v>1806.8435</v>
+        <v>1803.2289</v>
       </c>
       <c r="J10" s="1">
-        <v>91069.8052</v>
+        <v>90707.82580000001</v>
       </c>
       <c r="K10" s="1">
-        <v>81009.6149</v>
+        <v>81007.5953</v>
       </c>
       <c r="L10" s="1">
-        <v>14.9076</v>
+        <v>14.9374</v>
       </c>
       <c r="M10" s="1">
         <v>0.75</v>
       </c>
       <c r="N10" s="1">
-        <v>3232.4274</v>
+        <v>3225.918</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-7219.2835</v>
+        <v>-7224.8892</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.014</v>
+        <v>0.0135</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,31 +1171,31 @@
         <v>17.107</v>
       </c>
       <c r="C11" s="1">
-        <v>17.107</v>
+        <v>17.0728</v>
       </c>
       <c r="D11" s="1">
-        <v>17.107</v>
+        <v>17.1413</v>
       </c>
       <c r="E11" s="1">
-        <v>6070.3911</v>
+        <v>6058.0768</v>
       </c>
       <c r="F11" s="1">
-        <v>673.9456</v>
+        <v>672.4177</v>
       </c>
       <c r="H11" s="1">
-        <v>103846.1808</v>
+        <v>103428.3337</v>
       </c>
       <c r="I11" s="1">
-        <v>4587.5599</v>
+        <v>4578.3397</v>
       </c>
       <c r="J11" s="1">
-        <v>108433.7408</v>
+        <v>108006.6734</v>
       </c>
       <c r="K11" s="1">
-        <v>91461.32580000001</v>
+        <v>91458.4026</v>
       </c>
       <c r="L11" s="1">
-        <v>15.0668</v>
+        <v>15.0969</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1207,10 +1207,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-11529.1866</v>
+        <v>-11526.1132</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.07290000000000001</v>
+        <v>0.0725</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,46 +1221,46 @@
         <v>16.8894</v>
       </c>
       <c r="C12" s="1">
-        <v>16.8893</v>
+        <v>16.8556</v>
       </c>
       <c r="D12" s="1">
-        <v>16.8894</v>
+        <v>16.9232</v>
       </c>
       <c r="E12" s="1">
-        <v>6744.3367</v>
+        <v>6730.4945</v>
       </c>
       <c r="F12" s="1">
-        <v>682.6286</v>
+        <v>681.0836</v>
       </c>
       <c r="H12" s="1">
-        <v>113907.1254</v>
+        <v>113446.523</v>
       </c>
       <c r="I12" s="1">
-        <v>3058.3733</v>
+        <v>3052.2265</v>
       </c>
       <c r="J12" s="1">
-        <v>116965.4987</v>
+        <v>116498.7494</v>
       </c>
       <c r="K12" s="1">
-        <v>102990.5124</v>
+        <v>102984.5158</v>
       </c>
       <c r="L12" s="1">
-        <v>15.2707</v>
+        <v>15.3012</v>
       </c>
       <c r="M12" s="1">
         <v>1</v>
       </c>
       <c r="N12" s="1">
-        <v>5463.352</v>
+        <v>5452.2691</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-6065.8346</v>
+        <v>-6073.8441</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0124</v>
+        <v>-0.0128</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,31 +1271,31 @@
         <v>16.4004</v>
       </c>
       <c r="C13" s="1">
-        <v>16.4004</v>
+        <v>16.3676</v>
       </c>
       <c r="D13" s="1">
-        <v>16.4004</v>
+        <v>16.4333</v>
       </c>
       <c r="E13" s="1">
-        <v>7426.9652</v>
+        <v>7411.578</v>
       </c>
       <c r="F13" s="1">
-        <v>1036.1051</v>
+        <v>1033.1694</v>
       </c>
       <c r="H13" s="1">
-        <v>121805.2005</v>
+        <v>121309.7449</v>
       </c>
       <c r="I13" s="1">
-        <v>6992.5387</v>
+        <v>6978.3824</v>
       </c>
       <c r="J13" s="1">
-        <v>128797.7391</v>
+        <v>128288.1272</v>
       </c>
       <c r="K13" s="1">
-        <v>114519.6991</v>
+        <v>114510.629</v>
       </c>
       <c r="L13" s="1">
-        <v>15.4194</v>
+        <v>15.4502</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-16992.5387</v>
+        <v>-16978.3824</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0144</v>
+        <v>0.0141</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,31 +1321,31 @@
         <v>15.3877</v>
       </c>
       <c r="C14" s="1">
-        <v>15.3877</v>
+        <v>15.3569</v>
       </c>
       <c r="D14" s="1">
-        <v>15.3877</v>
+        <v>15.4185</v>
       </c>
       <c r="E14" s="1">
-        <v>8463.070400000001</v>
+        <v>8444.7474</v>
       </c>
       <c r="F14" s="1">
-        <v>-8463.070400000001</v>
+        <v>-8444.7474</v>
       </c>
       <c r="H14" s="1">
-        <v>130227.1878</v>
+        <v>129685.1418</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>130227.1878</v>
+        <v>129685.1418</v>
       </c>
       <c r="K14" s="1">
-        <v>131512.2377</v>
+        <v>131489.0114</v>
       </c>
       <c r="L14" s="1">
-        <v>15.5395</v>
+        <v>15.5705</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -1357,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>130227.1878</v>
+        <v>129685.1418</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0617</v>
+        <v>-0.0622</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>14.1252</v>
       </c>
       <c r="C2" s="1">
-        <v>14.1252</v>
+        <v>14.097</v>
       </c>
       <c r="D2" s="1">
-        <v>14.1252</v>
+        <v>14.1535</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>707.9546</v>
+        <v>706.539</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>14.1934</v>
       </c>
       <c r="C3" s="1">
-        <v>14.1934</v>
+        <v>14.165</v>
       </c>
       <c r="D3" s="1">
-        <v>14.1934</v>
+        <v>14.2218</v>
       </c>
       <c r="E3" s="1">
-        <v>707.9546</v>
+        <v>706.539</v>
       </c>
       <c r="F3" s="1">
-        <v>701.1511</v>
+        <v>705.3918</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>10048.2825</v>
+        <v>10008.1252</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10048.2825</v>
+        <v>10008.1252</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>14.1252</v>
+        <v>14.1535</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9951.717500000001</v>
+        <v>-10031.9411</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0048</v>
+        <v>0.0008</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,49 +1556,49 @@
         <v>14.1176</v>
       </c>
       <c r="C4" s="1">
-        <v>14.1176</v>
+        <v>14.0894</v>
       </c>
       <c r="D4" s="1">
-        <v>14.1176</v>
+        <v>14.1459</v>
       </c>
       <c r="E4" s="1">
-        <v>1409.1056</v>
+        <v>1411.9308</v>
       </c>
       <c r="F4" s="1">
-        <v>711.7557</v>
+        <v>704.6606</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>19893.1898</v>
+        <v>19893.258</v>
       </c>
       <c r="I4" s="1">
-        <v>48.2825</v>
+        <v>-31.9411</v>
       </c>
       <c r="J4" s="1">
-        <v>19941.4723</v>
+        <v>19861.317</v>
       </c>
       <c r="K4" s="1">
-        <v>19951.7175</v>
+        <v>20031.9411</v>
       </c>
       <c r="L4" s="1">
-        <v>14.1591</v>
+        <v>14.1876</v>
       </c>
       <c r="M4" s="1">
         <v>0.5</v>
       </c>
       <c r="N4" s="1">
-        <v>318.5796</v>
+        <v>317.9426</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9729.7029</v>
+        <v>-9650.116400000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0053</v>
+        <v>-0.0073</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,34 +1609,34 @@
         <v>15.3311</v>
       </c>
       <c r="C5" s="1">
-        <v>15.3311</v>
+        <v>15.3004</v>
       </c>
       <c r="D5" s="1">
-        <v>15.3311</v>
+        <v>15.3618</v>
       </c>
       <c r="E5" s="1">
-        <v>2120.8614</v>
+        <v>2116.5915</v>
       </c>
       <c r="F5" s="1">
-        <v>488.2143</v>
+        <v>497.7193</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>32515.1376</v>
+        <v>32384.6959</v>
       </c>
       <c r="I5" s="1">
-        <v>318.5796</v>
+        <v>317.9426</v>
       </c>
       <c r="J5" s="1">
-        <v>32833.7171</v>
+        <v>32702.6385</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>14.1452</v>
+        <v>14.1737</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -1648,10 +1648,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-7484.8624</v>
+        <v>-7645.8641</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.09660000000000001</v>
+        <v>0.09520000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,34 +1662,34 @@
         <v>15.3637</v>
       </c>
       <c r="C6" s="1">
-        <v>15.3637</v>
+        <v>15.333</v>
       </c>
       <c r="D6" s="1">
-        <v>15.3637</v>
+        <v>15.3945</v>
       </c>
       <c r="E6" s="1">
-        <v>2609.0757</v>
+        <v>2614.3107</v>
       </c>
       <c r="F6" s="1">
-        <v>645.3487</v>
+        <v>646.6297</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>40085.0559</v>
+        <v>40085.2265</v>
       </c>
       <c r="I6" s="1">
-        <v>2833.7171</v>
+        <v>2672.0785</v>
       </c>
       <c r="J6" s="1">
-        <v>42918.773</v>
+        <v>42757.305</v>
       </c>
       <c r="K6" s="1">
-        <v>37484.8624</v>
+        <v>37645.8641</v>
       </c>
       <c r="L6" s="1">
-        <v>14.3671</v>
+        <v>14.3999</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -1701,10 +1701,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9914.944100000001</v>
+        <v>-9954.5412</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.002</v>
+        <v>0.0013</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,49 +1715,49 @@
         <v>14.6447</v>
       </c>
       <c r="C7" s="1">
-        <v>14.6447</v>
+        <v>14.6154</v>
       </c>
       <c r="D7" s="1">
-        <v>14.6447</v>
+        <v>14.674</v>
       </c>
       <c r="E7" s="1">
-        <v>3254.4244</v>
+        <v>3260.9405</v>
       </c>
       <c r="F7" s="1">
-        <v>842.621</v>
+        <v>844.3184</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>47660.0689</v>
+        <v>47659.9491</v>
       </c>
       <c r="I7" s="1">
-        <v>2918.773</v>
+        <v>2717.5373</v>
       </c>
       <c r="J7" s="1">
-        <v>50578.8418</v>
+        <v>50377.4864</v>
       </c>
       <c r="K7" s="1">
-        <v>47399.8066</v>
+        <v>47600.4053</v>
       </c>
       <c r="L7" s="1">
-        <v>14.5647</v>
+        <v>14.5971</v>
       </c>
       <c r="M7" s="1">
         <v>1</v>
       </c>
       <c r="N7" s="1">
-        <v>2348.1681</v>
+        <v>2352.8797</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9991.763000000001</v>
+        <v>-10036.6483</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0442</v>
+        <v>-0.0451</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,34 +1768,34 @@
         <v>15.486</v>
       </c>
       <c r="C8" s="1">
-        <v>15.486</v>
+        <v>15.455</v>
       </c>
       <c r="D8" s="1">
-        <v>15.486</v>
+        <v>15.517</v>
       </c>
       <c r="E8" s="1">
-        <v>4097.0453</v>
+        <v>4105.2588</v>
       </c>
       <c r="F8" s="1">
-        <v>423.1665</v>
+        <v>424.0197</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>63446.8443</v>
+        <v>63446.7753</v>
       </c>
       <c r="I8" s="1">
-        <v>2927.0099</v>
+        <v>2680.889</v>
       </c>
       <c r="J8" s="1">
-        <v>66373.8542</v>
+        <v>66127.66439999999</v>
       </c>
       <c r="K8" s="1">
-        <v>59739.7377</v>
+        <v>59989.9332</v>
       </c>
       <c r="L8" s="1">
-        <v>14.5812</v>
+        <v>14.6129</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-6553.1557</v>
+        <v>-6579.5139</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.09569999999999999</v>
+        <v>0.09520000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,34 +1821,34 @@
         <v>16.1958</v>
       </c>
       <c r="C9" s="1">
-        <v>16.1957</v>
+        <v>16.1634</v>
       </c>
       <c r="D9" s="1">
-        <v>16.1958</v>
+        <v>16.2282</v>
       </c>
       <c r="E9" s="1">
-        <v>4520.2118</v>
+        <v>4529.2786</v>
       </c>
       <c r="F9" s="1">
-        <v>419.3709</v>
+        <v>420.1752</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>73207.99430000001</v>
+        <v>73208.54090000001</v>
       </c>
       <c r="I9" s="1">
-        <v>6373.8542</v>
+        <v>6101.3751</v>
       </c>
       <c r="J9" s="1">
-        <v>79581.84849999999</v>
+        <v>79309.9161</v>
       </c>
       <c r="K9" s="1">
-        <v>66292.89350000001</v>
+        <v>66569.4471</v>
       </c>
       <c r="L9" s="1">
-        <v>14.6659</v>
+        <v>14.6976</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1860,10 +1860,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-6792.0476</v>
+        <v>-6818.6864</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.042</v>
+        <v>0.0418</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,49 +1874,49 @@
         <v>16.4264</v>
       </c>
       <c r="C10" s="1">
-        <v>16.4264</v>
+        <v>16.3936</v>
       </c>
       <c r="D10" s="1">
-        <v>16.4264</v>
+        <v>16.4593</v>
       </c>
       <c r="E10" s="1">
-        <v>4939.5827</v>
+        <v>4949.4537</v>
       </c>
       <c r="F10" s="1">
-        <v>539.4023</v>
+        <v>540.4936</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>81139.56170000001</v>
+        <v>81139.3642</v>
       </c>
       <c r="I10" s="1">
-        <v>9581.8066</v>
+        <v>9282.688700000001</v>
       </c>
       <c r="J10" s="1">
-        <v>90721.3683</v>
+        <v>90422.0529</v>
       </c>
       <c r="K10" s="1">
-        <v>73084.9411</v>
+        <v>73388.1335</v>
       </c>
       <c r="L10" s="1">
-        <v>14.7958</v>
+        <v>14.8275</v>
       </c>
       <c r="M10" s="1">
         <v>0.75</v>
       </c>
       <c r="N10" s="1">
-        <v>3051.143</v>
+        <v>3057.263</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-5809.2953</v>
+        <v>-5838.8832</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0127</v>
+        <v>0.0125</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,34 +1927,34 @@
         <v>17.107</v>
       </c>
       <c r="C11" s="1">
-        <v>17.107</v>
+        <v>17.0728</v>
       </c>
       <c r="D11" s="1">
-        <v>17.107</v>
+        <v>17.1413</v>
       </c>
       <c r="E11" s="1">
-        <v>5478.985</v>
+        <v>5489.9473</v>
       </c>
       <c r="F11" s="1">
-        <v>366.5752</v>
+        <v>367.3227</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>93728.9972</v>
+        <v>93728.77220000001</v>
       </c>
       <c r="I11" s="1">
-        <v>13772.5113</v>
+        <v>13443.8055</v>
       </c>
       <c r="J11" s="1">
-        <v>107501.5085</v>
+        <v>107172.5777</v>
       </c>
       <c r="K11" s="1">
-        <v>81945.37940000001</v>
+        <v>82284.2797</v>
       </c>
       <c r="L11" s="1">
-        <v>14.9563</v>
+        <v>14.9882</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1966,10 +1966,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-6271.0028</v>
+        <v>-6296.3894</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0673</v>
+        <v>0.0672</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,49 +1980,49 @@
         <v>16.8894</v>
       </c>
       <c r="C12" s="1">
-        <v>16.8893</v>
+        <v>16.8556</v>
       </c>
       <c r="D12" s="1">
-        <v>16.8894</v>
+        <v>16.9232</v>
       </c>
       <c r="E12" s="1">
-        <v>5845.5603</v>
+        <v>5857.27</v>
       </c>
       <c r="F12" s="1">
-        <v>667.4391000000001</v>
+        <v>668.751</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>98727.4215</v>
+        <v>98727.8009</v>
       </c>
       <c r="I12" s="1">
-        <v>17501.5085</v>
+        <v>17147.4161</v>
       </c>
       <c r="J12" s="1">
-        <v>116228.93</v>
+        <v>115875.2171</v>
       </c>
       <c r="K12" s="1">
-        <v>88216.3821</v>
+        <v>88580.6691</v>
       </c>
       <c r="L12" s="1">
-        <v>15.0912</v>
+        <v>15.1232</v>
       </c>
       <c r="M12" s="1">
         <v>1</v>
       </c>
       <c r="N12" s="1">
-        <v>4931.0865</v>
+        <v>4940.9526</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-6341.5587</v>
+        <v>-6376.4541</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0108</v>
+        <v>-0.0111</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,34 +2033,34 @@
         <v>16.4004</v>
       </c>
       <c r="C13" s="1">
-        <v>16.4004</v>
+        <v>16.3676</v>
       </c>
       <c r="D13" s="1">
-        <v>16.4004</v>
+        <v>16.4333</v>
       </c>
       <c r="E13" s="1">
-        <v>6512.9994</v>
+        <v>6526.021</v>
       </c>
       <c r="F13" s="1">
-        <v>803.8954</v>
+        <v>805.5364</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>106815.7946</v>
+        <v>106815.3017</v>
       </c>
       <c r="I13" s="1">
-        <v>21159.9498</v>
+        <v>20770.9621</v>
       </c>
       <c r="J13" s="1">
-        <v>127975.7444</v>
+        <v>127586.2638</v>
       </c>
       <c r="K13" s="1">
-        <v>99489.0273</v>
+        <v>99898.0757</v>
       </c>
       <c r="L13" s="1">
-        <v>15.2755</v>
+        <v>15.3077</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2072,10 +2072,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-13184.2054</v>
+        <v>-13237.622</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0138</v>
+        <v>0.0136</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,34 +2086,34 @@
         <v>15.3877</v>
       </c>
       <c r="C14" s="1">
-        <v>15.3877</v>
+        <v>15.3569</v>
       </c>
       <c r="D14" s="1">
-        <v>15.3877</v>
+        <v>15.4185</v>
       </c>
       <c r="E14" s="1">
-        <v>7316.8947</v>
+        <v>7331.5575</v>
       </c>
       <c r="F14" s="1">
-        <v>-7316.8947</v>
+        <v>-7331.5575</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>112590.1807</v>
+        <v>112589.9949</v>
       </c>
       <c r="I14" s="1">
-        <v>17975.7444</v>
+        <v>17533.3401</v>
       </c>
       <c r="J14" s="1">
-        <v>130565.9252</v>
+        <v>130123.3349</v>
       </c>
       <c r="K14" s="1">
-        <v>112673.2327</v>
+        <v>113135.6977</v>
       </c>
       <c r="L14" s="1">
-        <v>15.3991</v>
+        <v>15.4313</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>112590.1807</v>
+        <v>112589.9949</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0537</v>
+        <v>-0.0542</v>
       </c>
     </row>
   </sheetData>
@@ -2224,16 +2224,16 @@
         <v>14.1252</v>
       </c>
       <c r="C2" s="1">
-        <v>14.1252</v>
+        <v>14.097</v>
       </c>
       <c r="D2" s="1">
-        <v>14.1252</v>
+        <v>14.1535</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>707.9546</v>
+        <v>706.539</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>14.1934</v>
       </c>
       <c r="C3" s="1">
-        <v>14.1934</v>
+        <v>14.165</v>
       </c>
       <c r="D3" s="1">
-        <v>14.1934</v>
+        <v>14.2218</v>
       </c>
       <c r="E3" s="1">
-        <v>707.9546</v>
+        <v>706.539</v>
       </c>
       <c r="F3" s="1">
-        <v>704.5528</v>
+        <v>703.1459</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>10048.2825</v>
+        <v>10008.1252</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10048.2825</v>
+        <v>10008.1252</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>14.1252</v>
+        <v>14.1535</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -2313,7 +2313,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0048</v>
+        <v>0.0008</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,49 +2324,49 @@
         <v>14.1176</v>
       </c>
       <c r="C4" s="1">
-        <v>14.1176</v>
+        <v>14.0894</v>
       </c>
       <c r="D4" s="1">
-        <v>14.1176</v>
+        <v>14.1459</v>
       </c>
       <c r="E4" s="1">
-        <v>1412.5074</v>
+        <v>1409.6849</v>
       </c>
       <c r="F4" s="1">
-        <v>708.3357</v>
+        <v>706.9186</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>19941.2144</v>
+        <v>19861.6143</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19941.2144</v>
+        <v>19861.6143</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>14.1592</v>
+        <v>14.1876</v>
       </c>
       <c r="M4" s="1">
         <v>0.5</v>
       </c>
       <c r="N4" s="1">
-        <v>318.5796</v>
+        <v>317.9426</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9681.420400000001</v>
+        <v>-9682.0574</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0053</v>
+        <v>-0.0073</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,34 +2377,34 @@
         <v>15.3311</v>
       </c>
       <c r="C5" s="1">
-        <v>15.3311</v>
+        <v>15.3004</v>
       </c>
       <c r="D5" s="1">
-        <v>15.3311</v>
+        <v>15.3618</v>
       </c>
       <c r="E5" s="1">
-        <v>2120.8431</v>
+        <v>2116.6035</v>
       </c>
       <c r="F5" s="1">
-        <v>507.866</v>
+        <v>517.38</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>32514.8575</v>
+        <v>32384.8803</v>
       </c>
       <c r="I5" s="1">
-        <v>318.5796</v>
+        <v>317.9426</v>
       </c>
       <c r="J5" s="1">
-        <v>32833.4371</v>
+        <v>32702.8228</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>14.1453</v>
+        <v>14.1737</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -2416,10 +2416,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-7786.1437</v>
+        <v>-7947.8881</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.09660000000000001</v>
+        <v>0.0951</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,34 +2430,34 @@
         <v>15.3637</v>
       </c>
       <c r="C6" s="1">
-        <v>15.3637</v>
+        <v>15.333</v>
       </c>
       <c r="D6" s="1">
-        <v>15.3637</v>
+        <v>15.3945</v>
       </c>
       <c r="E6" s="1">
-        <v>2628.709</v>
+        <v>2633.9835</v>
       </c>
       <c r="F6" s="1">
-        <v>658.4227</v>
+        <v>659.7298</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>40386.6972</v>
+        <v>40386.8691</v>
       </c>
       <c r="I6" s="1">
-        <v>2532.4358</v>
+        <v>2370.0545</v>
       </c>
       <c r="J6" s="1">
-        <v>42919.133</v>
+        <v>42756.9236</v>
       </c>
       <c r="K6" s="1">
-        <v>37786.1437</v>
+        <v>37947.8881</v>
       </c>
       <c r="L6" s="1">
-        <v>14.3744</v>
+        <v>14.407</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -2469,10 +2469,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10115.8091</v>
+        <v>-10156.2105</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.002</v>
+        <v>0.0013</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,49 +2483,49 @@
         <v>14.6447</v>
       </c>
       <c r="C7" s="1">
-        <v>14.6447</v>
+        <v>14.6154</v>
       </c>
       <c r="D7" s="1">
-        <v>14.6447</v>
+        <v>14.674</v>
       </c>
       <c r="E7" s="1">
-        <v>3287.1318</v>
+        <v>3293.7133</v>
       </c>
       <c r="F7" s="1">
-        <v>847.8579999999999</v>
+        <v>832.3459</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>48139.0585</v>
+        <v>48138.9376</v>
       </c>
       <c r="I7" s="1">
-        <v>2416.6268</v>
+        <v>2213.8439</v>
       </c>
       <c r="J7" s="1">
-        <v>50555.6853</v>
+        <v>50352.7815</v>
       </c>
       <c r="K7" s="1">
-        <v>47901.9528</v>
+        <v>48104.0986</v>
       </c>
       <c r="L7" s="1">
-        <v>14.5726</v>
+        <v>14.6048</v>
       </c>
       <c r="M7" s="1">
         <v>1</v>
       </c>
       <c r="N7" s="1">
-        <v>2365.8381</v>
+        <v>2370.5852</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10050.7886</v>
+        <v>-9843.2588</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0447</v>
+        <v>-0.0456</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,34 +2536,34 @@
         <v>15.486</v>
       </c>
       <c r="C8" s="1">
-        <v>15.486</v>
+        <v>15.455</v>
       </c>
       <c r="D8" s="1">
-        <v>15.486</v>
+        <v>15.517</v>
       </c>
       <c r="E8" s="1">
-        <v>4134.9898</v>
+        <v>4126.0592</v>
       </c>
       <c r="F8" s="1">
-        <v>453.593</v>
+        <v>471.7275</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>64034.4522</v>
+        <v>63768.2454</v>
       </c>
       <c r="I8" s="1">
-        <v>2365.8381</v>
+        <v>2370.5852</v>
       </c>
       <c r="J8" s="1">
-        <v>66400.29029999999</v>
+        <v>66138.8305</v>
       </c>
       <c r="K8" s="1">
-        <v>60318.5796</v>
+        <v>60317.9426</v>
       </c>
       <c r="L8" s="1">
-        <v>14.5874</v>
+        <v>14.6188</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -2575,10 +2575,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-7024.3417</v>
+        <v>-7319.7956</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0965</v>
+        <v>0.0959</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,34 +2589,34 @@
         <v>16.1958</v>
       </c>
       <c r="C9" s="1">
-        <v>16.1957</v>
+        <v>16.1634</v>
       </c>
       <c r="D9" s="1">
-        <v>16.1958</v>
+        <v>16.2282</v>
       </c>
       <c r="E9" s="1">
-        <v>4588.5828</v>
+        <v>4597.7867</v>
       </c>
       <c r="F9" s="1">
-        <v>438.3124</v>
+        <v>439.154</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>74315.31110000001</v>
+        <v>74315.86599999999</v>
       </c>
       <c r="I9" s="1">
-        <v>5341.4965</v>
+        <v>5050.7895</v>
       </c>
       <c r="J9" s="1">
-        <v>79656.8076</v>
+        <v>79366.65549999999</v>
       </c>
       <c r="K9" s="1">
-        <v>67342.9212</v>
+        <v>67637.73820000001</v>
       </c>
       <c r="L9" s="1">
-        <v>14.6762</v>
+        <v>14.7109</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -2628,10 +2628,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-7098.8206</v>
+        <v>-7126.679</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0426</v>
+        <v>0.0424</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,49 +2642,49 @@
         <v>16.4264</v>
       </c>
       <c r="C10" s="1">
-        <v>16.4264</v>
+        <v>16.3936</v>
       </c>
       <c r="D10" s="1">
-        <v>16.4264</v>
+        <v>16.4593</v>
       </c>
       <c r="E10" s="1">
-        <v>5026.8953</v>
+        <v>5036.9407</v>
       </c>
       <c r="F10" s="1">
-        <v>562.9575</v>
+        <v>564.0962</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>82573.7926</v>
+        <v>82573.5916</v>
       </c>
       <c r="I10" s="1">
-        <v>8242.6759</v>
+        <v>7924.1105</v>
       </c>
       <c r="J10" s="1">
-        <v>90816.4685</v>
+        <v>90497.70209999999</v>
       </c>
       <c r="K10" s="1">
-        <v>74441.7418</v>
+        <v>74764.4172</v>
       </c>
       <c r="L10" s="1">
-        <v>14.8087</v>
+        <v>14.8432</v>
       </c>
       <c r="M10" s="1">
         <v>0.75</v>
       </c>
       <c r="N10" s="1">
-        <v>3097.2934</v>
+        <v>3103.506</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-6150.0723</v>
+        <v>-6181.1218</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0129</v>
+        <v>0.0127</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,34 +2695,34 @@
         <v>17.107</v>
       </c>
       <c r="C11" s="1">
-        <v>17.107</v>
+        <v>17.0728</v>
       </c>
       <c r="D11" s="1">
-        <v>17.107</v>
+        <v>17.1413</v>
       </c>
       <c r="E11" s="1">
-        <v>5589.8528</v>
+        <v>5601.0369</v>
       </c>
       <c r="F11" s="1">
-        <v>389.0017</v>
+        <v>389.7944</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>95625.6121</v>
+        <v>95625.38250000001</v>
       </c>
       <c r="I11" s="1">
-        <v>12092.6036</v>
+        <v>11742.9887</v>
       </c>
       <c r="J11" s="1">
-        <v>107718.2157</v>
+        <v>107368.3713</v>
       </c>
       <c r="K11" s="1">
-        <v>83689.1075</v>
+        <v>84049.045</v>
       </c>
       <c r="L11" s="1">
-        <v>14.9716</v>
+        <v>15.006</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -2734,10 +2734,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-6654.652</v>
+        <v>-6681.5825</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.06850000000000001</v>
+        <v>0.0684</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,49 +2748,49 @@
         <v>16.8894</v>
       </c>
       <c r="C12" s="1">
-        <v>16.8893</v>
+        <v>16.8556</v>
       </c>
       <c r="D12" s="1">
-        <v>16.8894</v>
+        <v>16.9232</v>
       </c>
       <c r="E12" s="1">
-        <v>5978.8545</v>
+        <v>5990.8313</v>
       </c>
       <c r="F12" s="1">
-        <v>699.4367999999999</v>
+        <v>700.8122</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>100978.6675</v>
+        <v>100979.0555</v>
       </c>
       <c r="I12" s="1">
-        <v>15437.9517</v>
+        <v>15061.4063</v>
       </c>
       <c r="J12" s="1">
-        <v>116416.6191</v>
+        <v>116040.4618</v>
       </c>
       <c r="K12" s="1">
-        <v>90343.7595</v>
+        <v>90730.6275</v>
       </c>
       <c r="L12" s="1">
-        <v>15.1105</v>
+        <v>15.1449</v>
       </c>
       <c r="M12" s="1">
         <v>1</v>
       </c>
       <c r="N12" s="1">
-        <v>5030.8675</v>
+        <v>5040.9332</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-6782.2004</v>
+        <v>-6819.0516</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0111</v>
+        <v>-0.0113</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,34 +2801,34 @@
         <v>16.4004</v>
       </c>
       <c r="C13" s="1">
-        <v>16.4004</v>
+        <v>16.3676</v>
       </c>
       <c r="D13" s="1">
-        <v>16.4004</v>
+        <v>16.4333</v>
       </c>
       <c r="E13" s="1">
-        <v>6678.2913</v>
+        <v>6691.6435</v>
       </c>
       <c r="F13" s="1">
-        <v>843.2096</v>
+        <v>844.9302</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>109526.6488</v>
+        <v>109526.1434</v>
       </c>
       <c r="I13" s="1">
-        <v>18655.7513</v>
+        <v>18242.3547</v>
       </c>
       <c r="J13" s="1">
-        <v>128182.4001</v>
+        <v>127768.4981</v>
       </c>
       <c r="K13" s="1">
-        <v>102156.8274</v>
+        <v>102590.6122</v>
       </c>
       <c r="L13" s="1">
-        <v>15.2969</v>
+        <v>15.3312</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-13828.9749</v>
+        <v>-13884.9922</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.014</v>
+        <v>0.0137</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,34 +2854,34 @@
         <v>15.3877</v>
       </c>
       <c r="C14" s="1">
-        <v>15.3877</v>
+        <v>15.3569</v>
       </c>
       <c r="D14" s="1">
-        <v>15.3877</v>
+        <v>15.4185</v>
       </c>
       <c r="E14" s="1">
-        <v>7521.5009</v>
+        <v>7536.5737</v>
       </c>
       <c r="F14" s="1">
-        <v>-7521.5009</v>
+        <v>-7536.5737</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>115738.5997</v>
+        <v>115738.4087</v>
       </c>
       <c r="I14" s="1">
-        <v>14826.7764</v>
+        <v>14357.3625</v>
       </c>
       <c r="J14" s="1">
-        <v>130565.3761</v>
+        <v>130095.7712</v>
       </c>
       <c r="K14" s="1">
-        <v>115985.8023</v>
+        <v>116475.6045</v>
       </c>
       <c r="L14" s="1">
-        <v>15.4206</v>
+        <v>15.4547</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2893,10 +2893,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>115738.5997</v>
+        <v>115738.4087</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0551</v>
+        <v>-0.0557</v>
       </c>
     </row>
   </sheetData>
@@ -2992,16 +2992,16 @@
         <v>14.1252</v>
       </c>
       <c r="C2" s="1">
-        <v>14.1252</v>
+        <v>14.097</v>
       </c>
       <c r="D2" s="1">
-        <v>14.1252</v>
+        <v>14.1535</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>707.9546</v>
+        <v>706.539</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>14.1934</v>
       </c>
       <c r="C3" s="1">
-        <v>14.1934</v>
+        <v>14.165</v>
       </c>
       <c r="D3" s="1">
-        <v>14.1934</v>
+        <v>14.2218</v>
       </c>
       <c r="E3" s="1">
-        <v>707.9546</v>
+        <v>706.539</v>
       </c>
       <c r="F3" s="1">
-        <v>704.5528</v>
+        <v>703.1459</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>10048.2825</v>
+        <v>10008.1252</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10048.2825</v>
+        <v>10008.1252</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>14.1252</v>
+        <v>14.1535</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3081,7 +3081,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0048</v>
+        <v>0.0008</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,49 +3092,49 @@
         <v>14.1176</v>
       </c>
       <c r="C4" s="1">
-        <v>14.1176</v>
+        <v>14.0894</v>
       </c>
       <c r="D4" s="1">
-        <v>14.1176</v>
+        <v>14.1459</v>
       </c>
       <c r="E4" s="1">
-        <v>1412.5074</v>
+        <v>1409.6849</v>
       </c>
       <c r="F4" s="1">
-        <v>708.3357</v>
+        <v>706.9186</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>19941.2144</v>
+        <v>19861.6143</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19941.2144</v>
+        <v>19861.6143</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>14.1592</v>
+        <v>14.1876</v>
       </c>
       <c r="M4" s="1">
         <v>0.5</v>
       </c>
       <c r="N4" s="1">
-        <v>318.5796</v>
+        <v>317.9426</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9681.420400000001</v>
+        <v>-9682.0574</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0053</v>
+        <v>-0.0073</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,34 +3145,34 @@
         <v>15.3311</v>
       </c>
       <c r="C5" s="1">
-        <v>15.3311</v>
+        <v>15.3004</v>
       </c>
       <c r="D5" s="1">
-        <v>15.3311</v>
+        <v>15.3618</v>
       </c>
       <c r="E5" s="1">
-        <v>2120.8431</v>
+        <v>2116.6035</v>
       </c>
       <c r="F5" s="1">
-        <v>527.6303</v>
+        <v>537.184</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>32514.8575</v>
+        <v>32384.8803</v>
       </c>
       <c r="I5" s="1">
-        <v>318.5796</v>
+        <v>317.9426</v>
       </c>
       <c r="J5" s="1">
-        <v>32833.4371</v>
+        <v>32702.8228</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>14.1453</v>
+        <v>14.1737</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3184,10 +3184,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-8089.1525</v>
+        <v>-8252.112800000001</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.09660000000000001</v>
+        <v>0.0951</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,34 +3198,34 @@
         <v>15.3637</v>
       </c>
       <c r="C6" s="1">
-        <v>15.3637</v>
+        <v>15.333</v>
       </c>
       <c r="D6" s="1">
-        <v>15.3637</v>
+        <v>15.3945</v>
       </c>
       <c r="E6" s="1">
-        <v>2648.4734</v>
+        <v>2653.7875</v>
       </c>
       <c r="F6" s="1">
-        <v>671.6937</v>
+        <v>673.0272</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>40690.3502</v>
+        <v>40690.5235</v>
       </c>
       <c r="I6" s="1">
-        <v>2229.4271</v>
+        <v>2065.8297</v>
       </c>
       <c r="J6" s="1">
-        <v>42919.7773</v>
+        <v>42756.3532</v>
       </c>
       <c r="K6" s="1">
-        <v>38089.1525</v>
+        <v>38252.1128</v>
       </c>
       <c r="L6" s="1">
-        <v>14.3816</v>
+        <v>14.4142</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10319.6999</v>
+        <v>-10360.9178</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.002</v>
+        <v>0.0013</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,49 +3251,49 @@
         <v>14.6447</v>
       </c>
       <c r="C7" s="1">
-        <v>14.6447</v>
+        <v>14.6154</v>
       </c>
       <c r="D7" s="1">
-        <v>14.6447</v>
+        <v>14.674</v>
       </c>
       <c r="E7" s="1">
-        <v>3320.167</v>
+        <v>3326.8147</v>
       </c>
       <c r="F7" s="1">
-        <v>813.2449</v>
+        <v>797.6633</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>48622.85</v>
+        <v>48622.7279</v>
       </c>
       <c r="I7" s="1">
-        <v>1909.7272</v>
+        <v>1704.9119</v>
       </c>
       <c r="J7" s="1">
-        <v>50532.5772</v>
+        <v>50327.6398</v>
       </c>
       <c r="K7" s="1">
-        <v>48408.8523</v>
+        <v>48613.0306</v>
       </c>
       <c r="L7" s="1">
-        <v>14.5802</v>
+        <v>14.6125</v>
       </c>
       <c r="M7" s="1">
         <v>1</v>
       </c>
       <c r="N7" s="1">
-        <v>2383.626</v>
+        <v>2388.4087</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9526.101199999999</v>
+        <v>-9316.503199999999</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0451</v>
+        <v>-0.046</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,34 +3304,34 @@
         <v>15.486</v>
       </c>
       <c r="C8" s="1">
-        <v>15.486</v>
+        <v>15.455</v>
       </c>
       <c r="D8" s="1">
-        <v>15.486</v>
+        <v>15.517</v>
       </c>
       <c r="E8" s="1">
-        <v>4133.4119</v>
+        <v>4124.4781</v>
       </c>
       <c r="F8" s="1">
-        <v>524.6891000000001</v>
+        <v>542.9663</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>64010.0167</v>
+        <v>63743.8085</v>
       </c>
       <c r="I8" s="1">
-        <v>2383.626</v>
+        <v>2388.4087</v>
       </c>
       <c r="J8" s="1">
-        <v>66393.6427</v>
+        <v>66132.2172</v>
       </c>
       <c r="K8" s="1">
-        <v>60318.5796</v>
+        <v>60317.9426</v>
       </c>
       <c r="L8" s="1">
-        <v>14.5929</v>
+        <v>14.6244</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -3343,10 +3343,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8125.3354</v>
+        <v>-8425.2075</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0968</v>
+        <v>0.09619999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,34 +3357,34 @@
         <v>16.1958</v>
       </c>
       <c r="C9" s="1">
-        <v>16.1957</v>
+        <v>16.1634</v>
       </c>
       <c r="D9" s="1">
-        <v>16.1958</v>
+        <v>16.2282</v>
       </c>
       <c r="E9" s="1">
-        <v>4658.101</v>
+        <v>4667.4443</v>
       </c>
       <c r="F9" s="1">
-        <v>457.8684</v>
+        <v>458.7485</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>75441.2064</v>
+        <v>75441.7697</v>
       </c>
       <c r="I9" s="1">
-        <v>4258.2906</v>
+        <v>3963.2012</v>
       </c>
       <c r="J9" s="1">
-        <v>79699.497</v>
+        <v>79404.9709</v>
       </c>
       <c r="K9" s="1">
-        <v>68443.91499999999</v>
+        <v>68743.1501</v>
       </c>
       <c r="L9" s="1">
-        <v>14.6935</v>
+        <v>14.7282</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -3396,10 +3396,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-7415.545</v>
+        <v>-7444.6629</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0433</v>
+        <v>0.043</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,49 +3410,49 @@
         <v>16.4264</v>
       </c>
       <c r="C10" s="1">
-        <v>16.4264</v>
+        <v>16.3936</v>
       </c>
       <c r="D10" s="1">
-        <v>16.4264</v>
+        <v>16.4593</v>
       </c>
       <c r="E10" s="1">
-        <v>5115.9694</v>
+        <v>5126.1929</v>
       </c>
       <c r="F10" s="1">
-        <v>587.3662</v>
+        <v>588.5539</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>84036.9598</v>
+        <v>84036.7552</v>
       </c>
       <c r="I10" s="1">
-        <v>6842.7456</v>
+        <v>6518.5384</v>
       </c>
       <c r="J10" s="1">
-        <v>90879.7053</v>
+        <v>90555.2936</v>
       </c>
       <c r="K10" s="1">
-        <v>75859.46000000001</v>
+        <v>76187.8129</v>
       </c>
       <c r="L10" s="1">
-        <v>14.828</v>
+        <v>14.8625</v>
       </c>
       <c r="M10" s="1">
         <v>0.75</v>
       </c>
       <c r="N10" s="1">
-        <v>3144.2182</v>
+        <v>3150.5249</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-6504.0947</v>
+        <v>-6536.6605</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0132</v>
+        <v>0.0129</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,34 +3463,34 @@
         <v>17.107</v>
       </c>
       <c r="C11" s="1">
-        <v>17.107</v>
+        <v>17.0728</v>
       </c>
       <c r="D11" s="1">
-        <v>17.107</v>
+        <v>17.1413</v>
       </c>
       <c r="E11" s="1">
-        <v>5703.3356</v>
+        <v>5714.7468</v>
       </c>
       <c r="F11" s="1">
-        <v>412.4138</v>
+        <v>413.2536</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>97566.9629</v>
+        <v>97566.72870000001</v>
       </c>
       <c r="I11" s="1">
-        <v>10338.6508</v>
+        <v>9981.8778</v>
       </c>
       <c r="J11" s="1">
-        <v>107905.6137</v>
+        <v>107548.6065</v>
       </c>
       <c r="K11" s="1">
-        <v>85507.7729</v>
+        <v>85874.9984</v>
       </c>
       <c r="L11" s="1">
-        <v>14.9926</v>
+        <v>15.0269</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-7055.1625</v>
+        <v>-7083.7046</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0696</v>
+        <v>0.06950000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,49 +3516,49 @@
         <v>16.8894</v>
       </c>
       <c r="C12" s="1">
-        <v>16.8893</v>
+        <v>16.8556</v>
       </c>
       <c r="D12" s="1">
-        <v>16.8894</v>
+        <v>16.9232</v>
       </c>
       <c r="E12" s="1">
-        <v>6115.7494</v>
+        <v>6128.0004</v>
       </c>
       <c r="F12" s="1">
-        <v>732.8674999999999</v>
+        <v>734.3092</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>103290.7268</v>
+        <v>103291.1237</v>
       </c>
       <c r="I12" s="1">
-        <v>13283.4883</v>
+        <v>12898.1732</v>
       </c>
       <c r="J12" s="1">
-        <v>116574.2151</v>
+        <v>116189.297</v>
       </c>
       <c r="K12" s="1">
-        <v>92562.9354</v>
+        <v>92958.70299999999</v>
       </c>
       <c r="L12" s="1">
-        <v>15.1352</v>
+        <v>15.1695</v>
       </c>
       <c r="M12" s="1">
         <v>1</v>
       </c>
       <c r="N12" s="1">
-        <v>5133.0021</v>
+        <v>5143.2721</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-7244.6911</v>
+        <v>-7283.5902</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0113</v>
+        <v>-0.0116</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,34 +3569,34 @@
         <v>16.4004</v>
       </c>
       <c r="C13" s="1">
-        <v>16.4004</v>
+        <v>16.3676</v>
       </c>
       <c r="D13" s="1">
-        <v>16.4004</v>
+        <v>16.4333</v>
       </c>
       <c r="E13" s="1">
-        <v>6848.617</v>
+        <v>6862.3097</v>
       </c>
       <c r="F13" s="1">
-        <v>884.428</v>
+        <v>886.232</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>112320.0578</v>
+        <v>112319.5396</v>
       </c>
       <c r="I13" s="1">
-        <v>16038.7972</v>
+        <v>15614.5831</v>
       </c>
       <c r="J13" s="1">
-        <v>128358.8551</v>
+        <v>127934.1226</v>
       </c>
       <c r="K13" s="1">
-        <v>104940.6286</v>
+        <v>105385.5652</v>
       </c>
       <c r="L13" s="1">
-        <v>15.3229</v>
+        <v>15.3572</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -3608,10 +3608,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-14504.9723</v>
+        <v>-14563.716</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0141</v>
+        <v>0.0138</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,34 +3622,34 @@
         <v>15.3877</v>
       </c>
       <c r="C14" s="1">
-        <v>15.3877</v>
+        <v>15.3569</v>
       </c>
       <c r="D14" s="1">
-        <v>15.3877</v>
+        <v>15.4185</v>
       </c>
       <c r="E14" s="1">
-        <v>7733.0449</v>
+        <v>7748.5416</v>
       </c>
       <c r="F14" s="1">
-        <v>-7733.0449</v>
+        <v>-7748.5416</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>118993.7755</v>
+        <v>118993.5791</v>
       </c>
       <c r="I14" s="1">
-        <v>11533.8249</v>
+        <v>11050.8671</v>
       </c>
       <c r="J14" s="1">
-        <v>130527.6005</v>
+        <v>130044.4462</v>
       </c>
       <c r="K14" s="1">
-        <v>119445.6009</v>
+        <v>119949.2812</v>
       </c>
       <c r="L14" s="1">
-        <v>15.4461</v>
+        <v>15.4802</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>118993.7755</v>
+        <v>118993.5791</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0566</v>
+        <v>-0.0572</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>14.1252</v>
       </c>
       <c r="C2" s="1">
-        <v>14.1252</v>
+        <v>14.097</v>
       </c>
       <c r="D2" s="1">
-        <v>14.1252</v>
+        <v>14.1535</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>707.9546</v>
+        <v>706.539</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>14.1934</v>
       </c>
       <c r="C3" s="1">
-        <v>14.1934</v>
+        <v>14.165</v>
       </c>
       <c r="D3" s="1">
-        <v>14.1934</v>
+        <v>14.2218</v>
       </c>
       <c r="E3" s="1">
-        <v>707.9546</v>
+        <v>706.539</v>
       </c>
       <c r="F3" s="1">
-        <v>704.5528</v>
+        <v>703.1459</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>10048.2825</v>
+        <v>10008.1252</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10048.2825</v>
+        <v>10008.1252</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>14.1252</v>
+        <v>14.1535</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3849,7 +3849,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0048</v>
+        <v>0.0008</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,49 +3860,49 @@
         <v>14.1176</v>
       </c>
       <c r="C4" s="1">
-        <v>14.1176</v>
+        <v>14.0894</v>
       </c>
       <c r="D4" s="1">
-        <v>14.1176</v>
+        <v>14.1459</v>
       </c>
       <c r="E4" s="1">
-        <v>1412.5074</v>
+        <v>1409.6849</v>
       </c>
       <c r="F4" s="1">
-        <v>708.3357</v>
+        <v>706.9186</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>19941.2144</v>
+        <v>19861.6143</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19941.2144</v>
+        <v>19861.6143</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>14.1592</v>
+        <v>14.1876</v>
       </c>
       <c r="M4" s="1">
         <v>0.5</v>
       </c>
       <c r="N4" s="1">
-        <v>318.5796</v>
+        <v>317.9426</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9681.420400000001</v>
+        <v>-9682.0574</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0053</v>
+        <v>-0.0073</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,34 +3913,34 @@
         <v>15.3311</v>
       </c>
       <c r="C5" s="1">
-        <v>15.3311</v>
+        <v>15.3004</v>
       </c>
       <c r="D5" s="1">
-        <v>15.3311</v>
+        <v>15.3618</v>
       </c>
       <c r="E5" s="1">
-        <v>2120.8431</v>
+        <v>2116.6035</v>
       </c>
       <c r="F5" s="1">
-        <v>547.526</v>
+        <v>557.1196</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>32514.8575</v>
+        <v>32384.8803</v>
       </c>
       <c r="I5" s="1">
-        <v>318.5796</v>
+        <v>317.9426</v>
       </c>
       <c r="J5" s="1">
-        <v>32833.4371</v>
+        <v>32702.8228</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>14.1453</v>
+        <v>14.1737</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3952,10 +3952,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-8394.1762</v>
+        <v>-8558.3606</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.09660000000000001</v>
+        <v>0.0951</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,34 +3966,34 @@
         <v>15.3637</v>
       </c>
       <c r="C6" s="1">
-        <v>15.3637</v>
+        <v>15.333</v>
       </c>
       <c r="D6" s="1">
-        <v>15.3637</v>
+        <v>15.3945</v>
       </c>
       <c r="E6" s="1">
-        <v>2668.3691</v>
+        <v>2673.7232</v>
       </c>
       <c r="F6" s="1">
-        <v>685.1635</v>
+        <v>686.524</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>40996.0226</v>
+        <v>40996.1971</v>
       </c>
       <c r="I6" s="1">
-        <v>1924.4033</v>
+        <v>1759.5819</v>
       </c>
       <c r="J6" s="1">
-        <v>42920.4259</v>
+        <v>42755.7791</v>
       </c>
       <c r="K6" s="1">
-        <v>38394.1762</v>
+        <v>38558.3606</v>
       </c>
       <c r="L6" s="1">
-        <v>14.3886</v>
+        <v>14.4212</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -4005,10 +4005,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10526.6467</v>
+        <v>-10568.6934</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.002</v>
+        <v>0.0012</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,49 +4019,49 @@
         <v>14.6447</v>
       </c>
       <c r="C7" s="1">
-        <v>14.6447</v>
+        <v>14.6154</v>
       </c>
       <c r="D7" s="1">
-        <v>14.6447</v>
+        <v>14.674</v>
       </c>
       <c r="E7" s="1">
-        <v>3353.5326</v>
+        <v>3360.2471</v>
       </c>
       <c r="F7" s="1">
-        <v>778.2854</v>
+        <v>762.6338</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>49111.4793</v>
+        <v>49111.3559</v>
       </c>
       <c r="I7" s="1">
-        <v>1397.7567</v>
+        <v>1190.8886</v>
       </c>
       <c r="J7" s="1">
-        <v>50509.236</v>
+        <v>50302.2445</v>
       </c>
       <c r="K7" s="1">
-        <v>48920.8229</v>
+        <v>49127.054</v>
       </c>
       <c r="L7" s="1">
-        <v>14.5878</v>
+        <v>14.6201</v>
       </c>
       <c r="M7" s="1">
         <v>1</v>
       </c>
       <c r="N7" s="1">
-        <v>2401.5322</v>
+        <v>2406.3508</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8996.2245</v>
+        <v>-8784.537700000001</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0456</v>
+        <v>-0.0465</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,34 +4072,34 @@
         <v>15.486</v>
       </c>
       <c r="C8" s="1">
-        <v>15.486</v>
+        <v>15.455</v>
       </c>
       <c r="D8" s="1">
-        <v>15.486</v>
+        <v>15.517</v>
       </c>
       <c r="E8" s="1">
-        <v>4131.8181</v>
+        <v>4122.8809</v>
       </c>
       <c r="F8" s="1">
-        <v>596.9655</v>
+        <v>615.3877</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>63985.3345</v>
+        <v>63719.125</v>
       </c>
       <c r="I8" s="1">
-        <v>2401.5322</v>
+        <v>2406.3508</v>
       </c>
       <c r="J8" s="1">
-        <v>66386.8667</v>
+        <v>66125.4758</v>
       </c>
       <c r="K8" s="1">
-        <v>60318.5796</v>
+        <v>60317.9426</v>
       </c>
       <c r="L8" s="1">
-        <v>14.5986</v>
+        <v>14.63</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -4111,10 +4111,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-9244.607400000001</v>
+        <v>-9548.971</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.09710000000000001</v>
+        <v>0.09660000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,34 +4125,34 @@
         <v>16.1958</v>
       </c>
       <c r="C9" s="1">
-        <v>16.1957</v>
+        <v>16.1634</v>
       </c>
       <c r="D9" s="1">
-        <v>16.1958</v>
+        <v>16.2282</v>
       </c>
       <c r="E9" s="1">
-        <v>4728.7835</v>
+        <v>4738.2686</v>
       </c>
       <c r="F9" s="1">
-        <v>478.0548</v>
+        <v>478.9747</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>76585.9596</v>
+        <v>76586.53140000001</v>
       </c>
       <c r="I9" s="1">
-        <v>3156.9248</v>
+        <v>2857.3799</v>
       </c>
       <c r="J9" s="1">
-        <v>79742.8844</v>
+        <v>79443.91130000001</v>
       </c>
       <c r="K9" s="1">
-        <v>69563.18700000001</v>
+        <v>69866.9135</v>
       </c>
       <c r="L9" s="1">
-        <v>14.7106</v>
+        <v>14.7452</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -4164,10 +4164,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-7742.4793</v>
+        <v>-7772.8972</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0439</v>
+        <v>0.0436</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,49 +4178,49 @@
         <v>16.4264</v>
       </c>
       <c r="C10" s="1">
-        <v>16.4264</v>
+        <v>16.3936</v>
       </c>
       <c r="D10" s="1">
-        <v>16.4264</v>
+        <v>16.4593</v>
       </c>
       <c r="E10" s="1">
-        <v>5206.8383</v>
+        <v>5217.2433</v>
       </c>
       <c r="F10" s="1">
-        <v>612.6545</v>
+        <v>613.893</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>85529.6087</v>
+        <v>85529.4005</v>
       </c>
       <c r="I10" s="1">
-        <v>5414.4455</v>
+        <v>5084.4827</v>
       </c>
       <c r="J10" s="1">
-        <v>90944.0542</v>
+        <v>90613.8832</v>
       </c>
       <c r="K10" s="1">
-        <v>77305.66620000001</v>
+        <v>77639.8107</v>
       </c>
       <c r="L10" s="1">
-        <v>14.8469</v>
+        <v>14.8814</v>
       </c>
       <c r="M10" s="1">
         <v>0.75</v>
       </c>
       <c r="N10" s="1">
-        <v>3191.9289</v>
+        <v>3198.3313</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-6871.7794</v>
+        <v>-6905.9179</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0134</v>
+        <v>0.0131</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,34 +4231,34 @@
         <v>17.107</v>
       </c>
       <c r="C11" s="1">
-        <v>17.107</v>
+        <v>17.0728</v>
       </c>
       <c r="D11" s="1">
-        <v>17.107</v>
+        <v>17.1413</v>
       </c>
       <c r="E11" s="1">
-        <v>5819.4928</v>
+        <v>5831.1364</v>
       </c>
       <c r="F11" s="1">
-        <v>436.8477</v>
+        <v>437.7367</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>99554.0637</v>
+        <v>99553.8247</v>
       </c>
       <c r="I11" s="1">
-        <v>8542.6661</v>
+        <v>8178.5648</v>
       </c>
       <c r="J11" s="1">
-        <v>108096.7299</v>
+        <v>107732.3895</v>
       </c>
       <c r="K11" s="1">
-        <v>87369.37450000001</v>
+        <v>87744.05989999999</v>
       </c>
       <c r="L11" s="1">
-        <v>15.0132</v>
+        <v>15.0475</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -4270,10 +4270,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-7473.1529</v>
+        <v>-7503.3769</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0709</v>
+        <v>0.0708</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,49 +4284,49 @@
         <v>16.8894</v>
       </c>
       <c r="C12" s="1">
-        <v>16.8893</v>
+        <v>16.8556</v>
       </c>
       <c r="D12" s="1">
-        <v>16.8894</v>
+        <v>16.9232</v>
       </c>
       <c r="E12" s="1">
-        <v>6256.3405</v>
+        <v>6268.8731</v>
       </c>
       <c r="F12" s="1">
-        <v>767.7886999999999</v>
+        <v>769.2997</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>105665.2114</v>
+        <v>105665.6174</v>
       </c>
       <c r="I12" s="1">
-        <v>11069.5132</v>
+        <v>10675.1879</v>
       </c>
       <c r="J12" s="1">
-        <v>116734.7246</v>
+        <v>116340.8053</v>
       </c>
       <c r="K12" s="1">
-        <v>94842.5275</v>
+        <v>95247.4368</v>
       </c>
       <c r="L12" s="1">
-        <v>15.1594</v>
+        <v>15.1937</v>
       </c>
       <c r="M12" s="1">
         <v>1</v>
       </c>
       <c r="N12" s="1">
-        <v>5237.5435</v>
+        <v>5248.0227</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-7729.9468</v>
+        <v>-7770.9894</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0115</v>
+        <v>-0.0118</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,34 +4337,34 @@
         <v>16.4004</v>
       </c>
       <c r="C13" s="1">
-        <v>16.4004</v>
+        <v>16.3676</v>
       </c>
       <c r="D13" s="1">
-        <v>16.4004</v>
+        <v>16.4333</v>
       </c>
       <c r="E13" s="1">
-        <v>7024.1292</v>
+        <v>7038.1728</v>
       </c>
       <c r="F13" s="1">
-        <v>927.6351</v>
+        <v>929.5265000000001</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>115198.5282</v>
+        <v>115197.9966</v>
       </c>
       <c r="I13" s="1">
-        <v>13339.5664</v>
+        <v>12904.1985</v>
       </c>
       <c r="J13" s="1">
-        <v>128538.0946</v>
+        <v>128102.1951</v>
       </c>
       <c r="K13" s="1">
-        <v>107810.0178</v>
+        <v>108266.449</v>
       </c>
       <c r="L13" s="1">
-        <v>15.3485</v>
+        <v>15.3827</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -4376,10 +4376,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-15213.5861</v>
+        <v>-15275.1876</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0142</v>
+        <v>0.0139</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,34 +4390,34 @@
         <v>15.3877</v>
       </c>
       <c r="C14" s="1">
-        <v>15.3877</v>
+        <v>15.3569</v>
       </c>
       <c r="D14" s="1">
-        <v>15.3877</v>
+        <v>15.4185</v>
       </c>
       <c r="E14" s="1">
-        <v>7951.7642</v>
+        <v>7967.6993</v>
       </c>
       <c r="F14" s="1">
-        <v>-7951.7642</v>
+        <v>-7967.6993</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>122359.3627</v>
+        <v>122359.1607</v>
       </c>
       <c r="I14" s="1">
-        <v>8125.9803</v>
+        <v>7629.0109</v>
       </c>
       <c r="J14" s="1">
-        <v>130485.3429</v>
+        <v>129988.1716</v>
       </c>
       <c r="K14" s="1">
-        <v>123023.6039</v>
+        <v>123541.6366</v>
       </c>
       <c r="L14" s="1">
-        <v>15.4712</v>
+        <v>15.5053</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -4429,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>122359.3627</v>
+        <v>122359.1607</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0581</v>
+        <v>-0.0588</v>
       </c>
     </row>
   </sheetData>
@@ -4452,7 +4452,7 @@
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" customWidth="1"/>
   </cols>
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>15.5395</v>
+        <v>15.5705</v>
       </c>
       <c r="D3" s="1">
-        <v>15.3991</v>
+        <v>15.4313</v>
       </c>
       <c r="E3" s="1">
-        <v>15.4206</v>
+        <v>15.4547</v>
       </c>
       <c r="F3" s="1">
-        <v>15.4461</v>
+        <v>15.4802</v>
       </c>
       <c r="G3" s="1">
-        <v>15.4712</v>
+        <v>15.5053</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>0.0963</v>
       </c>
       <c r="C4" s="3">
-        <v>0.2218</v>
+        <v>0.2094</v>
       </c>
       <c r="D4" s="3">
-        <v>0.2209</v>
+        <v>0.2098</v>
       </c>
       <c r="E4" s="3">
-        <v>0.2217</v>
+        <v>0.2103</v>
       </c>
       <c r="F4" s="3">
-        <v>0.2221</v>
+        <v>0.2105</v>
       </c>
       <c r="G4" s="3">
-        <v>0.2224</v>
+        <v>0.2107</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.1449</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1698</v>
+        <v>0.1699</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1615</v>
+        <v>0.1619</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1632</v>
+        <v>0.1635</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1647</v>
+        <v>0.165</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1662</v>
+        <v>0.1666</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>0.5244</v>
       </c>
       <c r="C6" s="4">
-        <v>1.1863</v>
+        <v>1.1129</v>
       </c>
       <c r="D6" s="4">
-        <v>1.2419</v>
+        <v>1.1701</v>
       </c>
       <c r="E6" s="4">
-        <v>1.2344</v>
+        <v>1.1619</v>
       </c>
       <c r="F6" s="4">
-        <v>1.2254</v>
+        <v>1.1525</v>
       </c>
       <c r="G6" s="4">
-        <v>1.2161</v>
+        <v>1.1428</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.1658</v>
+        <v>0.1568</v>
       </c>
       <c r="D7" s="3">
-        <v>0.1898</v>
+        <v>0.1809</v>
       </c>
       <c r="E7" s="3">
-        <v>0.1862</v>
+        <v>0.1771</v>
       </c>
       <c r="F7" s="3">
-        <v>0.1821</v>
+        <v>0.1729</v>
       </c>
       <c r="G7" s="3">
-        <v>0.178</v>
+        <v>0.1687</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>11512.2377</v>
+        <v>11489.0114</v>
       </c>
       <c r="D8" s="1">
-        <v>10648.9772</v>
+        <v>10669.0378</v>
       </c>
       <c r="E8" s="1">
-        <v>10812.5787</v>
+        <v>10832.967</v>
       </c>
       <c r="F8" s="1">
-        <v>10979.4258</v>
+        <v>11000.1483</v>
       </c>
       <c r="G8" s="1">
-        <v>11149.5842</v>
+        <v>11170.6475</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P40_KFSDIV.xlsx
+++ b/output/1Y_P40_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>12822.2057</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.9855</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.1635</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.1306</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.0978</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.0659</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
